--- a/AtticTest.xlsx
+++ b/AtticTest.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <x:workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s.m.shohan\Documents\Email Extraction\Email-Invoice Extraction-Razlan-Test-done\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s.m.shohan\Documents\Email Extraction\Email Invoice Extraction (21)\Email-Invoice Extraction-Razlan-Test-done\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42360070-4605-455E-8037-EF4C8B7B9AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D823249-D158-4B8D-AEA0-46AFEEC5D976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="0" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="ResultTest" sheetId="2" r:id="rId1"/>
+    <x:sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="0"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <x:si>
     <x:t>Vendor</x:t>
   </x:si>
@@ -172,6 +173,135 @@
   </x:si>
   <x:si>
     <x:t>WATER-SUPERMARKET</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Folder Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>XMLFiles</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ANGSANA ASIA SDN BHD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AngsanaAsia.xaml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Attic Holdings1.xaml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BIG MATRIX SDN BHD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BigMatrix.xaml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BADAN PENGURUSAN BERSAMA M-CITY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BPB M-City.xaml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BADAN PENGURUSAN BERSAMA TAMARIND SQUARE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BPB Tamarind Square.xaml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>COWAY (MALAYSIA) SDN BHD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Coway.xaml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CENTRAL PLAZA I-CITY REAL ESTATE SDN BHD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CP i-City.xaml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CUCKOO INTERNATIONAL ( MAL ) SDN BHD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CuckooInt.xaml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INTEGRITI GEMILANG DEVELOPMENT SDN BHD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Integriti Gemilang.xaml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KERUILAI PACIFIC SDN BHD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KeruilaiPacific.xaml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MOTIF BUDI SDN BHD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MotifBudi.xaml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PERBADANAN PENGURUSAN CHANGKAT VIEW CONDOMINIUM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PP Changkat View Condo.xaml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PERBADANAN PENGURUSAN SUNWAY NEXIS (UNITED OVERSEAS BANK (MALAYSIA) BERHAD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PP Sunway Nexis.xaml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PPB HARTABINA SDN BHD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PPB HARTABINA1.xaml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SAA RESOURCES SDN BHD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SAA Resources.xaml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SIME DARBY PROPERTY CAPITALAND (MELAWATI MALL) SDN. BHD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SimeDarby(MelawatiMall).xaml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SUEZ DOMAIN SDN BHD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SuezDomain.xaml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SUNRISE DCS SDN BHD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sunrise DCS.xaml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SUNSURIA AVENUE MANAGEMENT CORPORATION</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sunsuria Avenue Mgmt.xaml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SUN VICTORY SDN BHD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SunVictory.xaml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TUJUAN GEMILANG SDN BHD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tujuan Gemilang.xaml</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -214,10 +344,7 @@
   </x:cellStyleXfs>
   <x:cellXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,15 +649,15 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1"/>
+  <x:dimension ref="A1:AC5"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
+    <x:sheetView workbookViewId="0">
       <x:selection activeCell="C6" sqref="C6 1:1048576"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:sheetData>
-    <x:row r="1" spans="1:29">
+    <x:row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -619,7 +746,7 @@
         <x:v>28</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:29">
+    <x:row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <x:c r="A2" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
@@ -678,7 +805,7 @@
         <x:v>78638</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:29">
+    <x:row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <x:c r="A3" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
@@ -740,7 +867,7 @@
         <x:v>78638</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:29">
+    <x:row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <x:c r="A4" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
@@ -802,7 +929,7 @@
         <x:v>78638</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:29">
+    <x:row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <x:c r="A5" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
@@ -841,4 +968,206 @@
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{C8B3D983-3F8F-4665-9230-F47A515BF6FC}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:B22"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <x:selection activeCell="E24" sqref="E24"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:cols>
+    <x:col min="1" max="1" width="59.285156" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="30.425781" style="0" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <x:c r="A1" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <x:c r="A2" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <x:c r="A3" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <x:c r="A4" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <x:c r="A5" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <x:c r="A6" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <x:c r="A7" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <x:c r="A8" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <x:c r="A9" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <x:c r="A10" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <x:c r="A11" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <x:c r="A12" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <x:c r="A13" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <x:c r="A14" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <x:c r="A15" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <x:c r="A16" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <x:c r="A17" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <x:c r="A18" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <x:c r="A19" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <x:c r="A20" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <x:c r="A21" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <x:c r="A22" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>